--- a/PartList.xlsx
+++ b/PartList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Qty</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>http://webcache.googleusercontent.com/search?q=cache:http://au.element14.com/alps/skrmaae010/switch-1-57n-4-5x4-5mm-low-profile/dp/2056854</t>
+  </si>
+  <si>
+    <t>USB Vin Fuse 500ma</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/jsp/search/productdetail.jsp?sku=9350314&amp;CMP=KNC-GOO-G30-SKU-BOU&amp;mckv=sIqNH0eky|pcrid|16580069568</t>
+  </si>
+  <si>
+    <t>16MHz XTAL</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/txc/7b-16-000maaj-t/xtal-16-000mhz-18pf-smd-5-0x3-2/dp/1841977</t>
   </si>
 </sst>
 </file>
@@ -379,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E5"/>
+  <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +448,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
     <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
